--- a/codebook/positions_codebook.xlsx
+++ b/codebook/positions_codebook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejhall2/Desktop/Projects/chorus_data/codebook/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejhall2/Desktop/Projects/CHORUS/chorus_data/codebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549B985D-AD28-C141-92D4-47FF78771533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EB0C4C-3C2E-2C4A-8432-62010060156D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
   <si>
     <t>Variable</t>
   </si>
@@ -232,13 +232,43 @@
   </si>
   <si>
     <t>The id used to identify clients.</t>
+  </si>
+  <si>
+    <t>ncsl_topics</t>
+  </si>
+  <si>
+    <t>candidates_qualifications_for_office; election_crimes</t>
+  </si>
+  <si>
+    <t>Topics that the bill addresses, based on matches with NCSL's databases</t>
+  </si>
+  <si>
+    <t>Statenet/NCSL</t>
+  </si>
+  <si>
+    <t>ncsl_metatopics</t>
+  </si>
+  <si>
+    <t>elections_and_campaigns</t>
+  </si>
+  <si>
+    <t>NCSL metatopics which contain the bill</t>
+  </si>
+  <si>
+    <t>bill_version</t>
+  </si>
+  <si>
+    <t>Where available, any identifier assigned by the state legislature to distinguish versions of a bill.</t>
+  </si>
+  <si>
+    <t>States with bill version metadata: AZ, IL, WI, FL, TX, RI. Note that not all bills will have versions in some of these states; for instance, in Texas, versions only appear where they were parsed from witness list documents (e.g. as testimony on a particular amendment).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +290,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -269,7 +305,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -292,17 +328,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,7 +573,7 @@
   <dimension ref="A1:H997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD21"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -936,9 +988,69 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22">
+        <v>26242</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
